--- a/Config/app/static/resources/municipios.xlsx
+++ b/Config/app/static/resources/municipios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Documents\GitHub\Adso\Config\app\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0440CB0-FCEA-4B07-9B5A-467A545A62F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208B11A-1470-4A1E-BF5E-CB75C3A54DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BF938A7-6BD2-4C53-9F17-EDA637B44989}"/>
   </bookViews>
@@ -5776,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B62AE-0B4E-4471-9F15-6B670E5384B6}">
   <dimension ref="A1:D600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="C603" sqref="C603"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
